--- a/testdata2.xlsx
+++ b/testdata2.xlsx
@@ -337,62 +337,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:C15"/>
+  <dimension ref="B2:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C15"/>
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0.77906976744186052</v>
+      </c>
+      <c r="C2">
+        <v>8.5683221934904812E-4</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.72941176470588232</v>
+      </c>
+      <c r="C3">
+        <v>1.9430404974183672E-4</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="C4">
+        <v>7.7824019922949106E-5</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="C5">
+        <v>1.9200004915201258E-5</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.8</v>
+      </c>
       <c r="C6">
+        <v>2.0480005242881342E-5</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.86046511627906974</v>
+      </c>
+      <c r="C7">
+        <v>1.8176004653057192E-5</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.77906976744186052</v>
+      </c>
+      <c r="C8">
+        <v>1.8944004849665242E-5</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.79069767441860461</v>
+      </c>
+      <c r="C9">
+        <v>1.8944004849665242E-5</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.76744186046511631</v>
+      </c>
+      <c r="C10">
+        <v>2.1248005439489392E-5</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.81395348837209303</v>
+      </c>
+      <c r="C11">
+        <v>1.8432004718593208E-5</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>9.702402483815036E-5</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>2.8928007405569896E-5</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>1.2672003244032832E-4</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>1.8176004653057192E-5</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>1.8688004784129223E-5</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.81395348837209303</v>
+      </c>
+      <c r="C17">
+        <v>1.7920004587521174E-5</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0.74117647058823533</v>
+      </c>
+      <c r="C18">
+        <v>2.0224005177345326E-5</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.71764705882352942</v>
+      </c>
+      <c r="C19">
+        <v>1.7408004456449139E-5</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.8</v>
+      </c>
+      <c r="C20">
+        <v>1.8432004718593208E-5</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.77647058823529413</v>
+      </c>
+      <c r="C21">
+        <v>1.9456004980737277E-5</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.86046511627906974</v>
+      </c>
+      <c r="C22">
+        <v>3.3280008519682179E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.83720930232558144</v>
+      </c>
+      <c r="C23">
+        <v>1.8432004718593208E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0.80232558139534882</v>
+      </c>
+      <c r="C24">
+        <v>1.8176004653057192E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0.77906976744186052</v>
+      </c>
+      <c r="C25">
+        <v>1.8432004718593208E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0.82558139534883723</v>
+      </c>
+      <c r="C26">
+        <v>1.8432004718593208E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>1.8176004653057192E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>1.8176004653057192E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>1.7920004587521174E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>1.8176004653057192E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>1.7920004587521174E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0.87209302325581395</v>
+      </c>
+      <c r="C32">
+        <v>2.227200570163346E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="C33">
+        <v>1.8688004784129223E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0.77647058823529413</v>
+      </c>
+      <c r="C34">
+        <v>2.0224005177345326E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0.87058823529411766</v>
+      </c>
+      <c r="C35">
+        <v>1.9200004915201258E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0.87058823529411766</v>
+      </c>
+      <c r="C36">
+        <v>1.8432004718593208E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0.89534883720930236</v>
+      </c>
+      <c r="C37">
+        <v>1.8176004653057192E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0.87209302325581395</v>
+      </c>
+      <c r="C38">
+        <v>1.9968005111809307E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39">
         <v>0.84883720930232553</v>
       </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>0.82352941176470584</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>0.82352941176470584</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>0.91764705882352937</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>0.85882352941176465</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C11">
+      <c r="C39">
+        <v>2.6624006815745743E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40">
         <v>0.82558139534883723</v>
       </c>
-    </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C12">
+      <c r="C40">
+        <v>1.9456004980737277E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0.86046511627906974</v>
+      </c>
+      <c r="C41">
+        <v>1.8176004653057192E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47">
         <v>0.87209302325581395</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C13">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0.81176470588235294</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0.81176470588235294</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0.87058823529411766</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0.88235294117647056</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0.89534883720930236</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>0.88372093023255816</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0.86046511627906974</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0.81395348837209303</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56">
         <v>0.83720930232558144</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>0.86046511627906974</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>0.86046511627906974</v>
       </c>
     </row>
   </sheetData>

--- a/testdata2.xlsx
+++ b/testdata2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -347,296 +347,296 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>0.77906976744186052</v>
+        <v>0.72093023255813948</v>
       </c>
       <c r="C2">
-        <v>8.5683221934904812E-4</v>
+        <v>6.1353487706492855E-2</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>0.72941176470588232</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.9430404974183672E-4</v>
+        <v>1.8632452769907909E-2</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>0.70588235294117652</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>7.7824019922949106E-5</v>
+        <v>1.4661379753313216E-2</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>0.76470588235294112</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.9200004915201258E-5</v>
+        <v>9.0227223098169121E-3</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.0480005242881342E-5</v>
+        <v>1.4661123753247681E-2</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>0.86046511627906974</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.8176004653057192E-5</v>
+        <v>7.744769982661116E-3</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>0.77906976744186052</v>
+        <v>0.72093023255813948</v>
       </c>
       <c r="C8">
-        <v>1.8944004849665242E-5</v>
+        <v>7.5051539213194041E-3</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>0.79069767441860461</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.8944004849665242E-5</v>
+        <v>7.2931858670555816E-3</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>0.76744186046511631</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2.1248005439489392E-5</v>
+        <v>7.6764179651629995E-3</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>0.81395348837209303</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="C11">
-        <v>1.8432004718593208E-5</v>
+        <v>9.9184665391274345E-3</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12">
-        <v>9.702402483815036E-5</v>
+        <v>4.4149003302144843E-2</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C13">
-        <v>2.8928007405569896E-5</v>
+        <v>8.9960983030011651E-3</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C14">
-        <v>1.2672003244032832E-4</v>
+        <v>8.9909783016904454E-3</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C15">
-        <v>1.8176004653057192E-5</v>
+        <v>7.4864659165352751E-3</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C16">
-        <v>1.8688004784129223E-5</v>
+        <v>7.2883218658103977E-3</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>0.81395348837209303</v>
+        <v>0.70930232558139539</v>
       </c>
       <c r="C17">
-        <v>1.7920004587521174E-5</v>
+        <v>7.7396499813503954E-3</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>0.74117647058823533</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>2.0224005177345326E-5</v>
+        <v>7.273985862140381E-3</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>0.71764705882352942</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1.7408004456449139E-5</v>
+        <v>7.0891538148233763E-3</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1.8432004718593208E-5</v>
+        <v>7.7667859882972132E-3</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>0.77647058823529413</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>1.9456004980737277E-5</v>
+        <v>1.0642178724397754E-2</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>0.86046511627906974</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>3.3280008519682179E-5</v>
+        <v>7.9208980277498953E-3</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>0.83720930232558144</v>
+        <v>0.73255813953488369</v>
       </c>
       <c r="C23">
-        <v>1.8432004718593208E-5</v>
+        <v>7.3489938813424338E-3</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>0.80232558139534882</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1.8176004653057192E-5</v>
+        <v>7.3958418933355247E-3</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>0.77906976744186052</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1.8432004718593208E-5</v>
+        <v>7.4572819090641691E-3</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>0.82558139534883723</v>
+        <v>0.7558139534883721</v>
       </c>
       <c r="C26">
-        <v>1.8432004718593208E-5</v>
+        <v>7.5328019283972935E-3</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C27">
-        <v>1.8176004653057192E-5</v>
+        <v>7.5458579317396303E-3</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28">
-        <v>1.8176004653057192E-5</v>
+        <v>7.237889852899802E-3</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C29">
-        <v>1.7920004587521174E-5</v>
+        <v>7.4186258991682302E-3</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C30">
-        <v>1.8176004653057192E-5</v>
+        <v>1.1177218861368028E-2</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C31">
-        <v>1.7920004587521174E-5</v>
+        <v>7.3000978688250546E-3</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>0.87209302325581395</v>
+        <v>0.82558139534883723</v>
       </c>
       <c r="C32">
-        <v>2.227200570163346E-5</v>
+        <v>1.1446274930246383E-2</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>0.82352941176470584</v>
+        <v>0.84705882352941175</v>
       </c>
       <c r="C33">
-        <v>1.8688004784129223E-5</v>
+        <v>7.53689792944587E-3</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>0.77647058823529413</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="C34">
-        <v>2.0224005177345326E-5</v>
+        <v>7.2862738652861095E-3</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -644,85 +644,85 @@
         <v>0.87058823529411766</v>
       </c>
       <c r="C35">
-        <v>1.9200004915201258E-5</v>
+        <v>7.2793618635166374E-3</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>0.87058823529411766</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="C36">
-        <v>1.8432004718593208E-5</v>
+        <v>7.3167378730848954E-3</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>0.89534883720930236</v>
+        <v>0.81395348837209303</v>
       </c>
       <c r="C37">
-        <v>1.8176004653057192E-5</v>
+        <v>7.3116178717741748E-3</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>0.87209302325581395</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="C38">
-        <v>1.9968005111809307E-5</v>
+        <v>7.1518738308797005E-3</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>0.84883720930232553</v>
+        <v>0.86046511627906974</v>
       </c>
       <c r="C39">
-        <v>2.6624006815745743E-5</v>
+        <v>7.1892498404479595E-3</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>0.82558139534883723</v>
+        <v>0.81395348837209303</v>
       </c>
       <c r="C40">
-        <v>1.9456004980737277E-5</v>
+        <v>7.2806418638443173E-3</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>0.86046511627906974</v>
+        <v>0.84883720930232553</v>
       </c>
       <c r="C41">
-        <v>1.8176004653057192E-5</v>
+        <v>7.2450578547348108E-3</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>0.87209302325581395</v>
+        <v>0.81395348837209303</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>0.81176470588235294</v>
+        <v>0.88235294117647056</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>0.81176470588235294</v>
+        <v>0.82352941176470584</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>0.87058823529411766</v>
+        <v>0.90588235294117647</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>0.88235294117647056</v>
+        <v>0.83529411764705885</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>0.89534883720930236</v>
+        <v>0.80232558139534882</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
@@ -732,17 +732,17 @@
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>0.86046511627906974</v>
+        <v>0.89534883720930236</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>0.81395348837209303</v>
+        <v>0.83720930232558144</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>0.83720930232558144</v>
+        <v>0.87209302325581395</v>
       </c>
     </row>
   </sheetData>
